--- a/What I Do.xlsx
+++ b/What I Do.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian Boraks\Documents\Github\CPXII-Team-Helix\Windows\BATMAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\Github\CPXII-Team-Helix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6672F6F-4892-4E85-8403-8A938F95E7C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B74B78E-F5BB-411A-8E2A-C942B80C2F13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{FC65DE37-B805-412D-8D3E-53D5075073E7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{FC65DE37-B805-412D-8D3E-53D5075073E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>Item</t>
   </si>
@@ -78,13 +78,28 @@
     <t>policies</t>
   </si>
   <si>
-    <t>Users</t>
-  </si>
-  <si>
     <t>Software Install</t>
   </si>
   <si>
     <t>Windows Updates</t>
+  </si>
+  <si>
+    <t>Users Remove/Demote</t>
+  </si>
+  <si>
+    <t>Users passowrd change</t>
+  </si>
+  <si>
+    <t>Adding users</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>N/Y</t>
+  </si>
+  <si>
+    <t>If you use ninite yes. But plz don't. Use patchmy pc in the software folder</t>
   </si>
 </sst>
 </file>
@@ -436,19 +451,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BD5A97-B15F-494B-9E1F-AE1D162579B9}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,7 +471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -464,7 +479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -472,7 +487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -480,7 +495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -488,7 +503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -496,7 +511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -504,7 +519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -512,7 +527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -520,7 +535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -528,7 +543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -536,7 +551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -544,28 +559,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
